--- a/res/Card_Descriptions-v2.xlsx
+++ b/res/Card_Descriptions-v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32460" windowHeight="16160"/>
+    <workbookView windowWidth="15460" windowHeight="16160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,492 @@
     <t>Life is unfair. And it’s not fair that life is unfair.</t>
   </si>
   <si>
+    <t>Stereotyping</t>
+  </si>
+  <si>
+    <t>We expect a member of a group to have certain characteristics before knowing them individually.</t>
+  </si>
+  <si>
+    <t>Karen thinks Xin is good at math because his name sounds Asian.</t>
+  </si>
+  <si>
+    <t>The problem with labels is that they lead to stereotypes and stereotypes lead to generalizations and generalizations lead to assumptions and assumptions lead back to stereotypes.</t>
+  </si>
+  <si>
+    <t>Authority Bias</t>
+  </si>
+  <si>
+    <t>We trust and are more influenced by the opinions of authority figures.</t>
+  </si>
+  <si>
+    <t>Zoey is super excited to go on the FOMO diet because her favorite celebrity raved about it.</t>
+  </si>
+  <si>
+    <t>The disappearance of a sense of responsibility is the most far-reaching consequence of submission to authority.</t>
+  </si>
+  <si>
+    <t>Fundamental Attribution Error</t>
+  </si>
+  <si>
+    <t>We attribute others’ actions to their personality or character, but we attribute our own actions to our situation (outside of control).</t>
+  </si>
+  <si>
+    <t>I am late due to traffic, unlike Emily, who is late due to laziness.</t>
+  </si>
+  <si>
+    <t>Everybody makes excuses for themselves they wouldn’t be prepared to make for other people.</t>
+  </si>
+  <si>
+    <t>Survivorship Bias</t>
+  </si>
+  <si>
+    <t>We focus on the visible success of someone / something and forget or overlook those who failed.</t>
+  </si>
+  <si>
+    <t>Justin wants to drop out of college and start a business like Elon Musk and Bill Gates.</t>
+  </si>
+  <si>
+    <t>I survived because the fire inside me burned brighter than the fire around me.</t>
+  </si>
+  <si>
+    <t>Naïve Realism</t>
+  </si>
+  <si>
+    <t>We believe we see reality objectively and without bias but others are irrational, uninformed, or biased.</t>
+  </si>
+  <si>
+    <t>Frank, a food influencer, is annoyed that Ian doesn’t appreciate the chef’s vanilla-covered sushi creation.</t>
+  </si>
+  <si>
+    <t>The only thing more dangerous than ignorance is arrogance.</t>
+  </si>
+  <si>
+    <t>Halo Effect</t>
+  </si>
+  <si>
+    <t>Our overall impression of a person influences how we feel and think about their character.</t>
+  </si>
+  <si>
+    <t>Mia must be well-spoken and nice because she looks so beautiful and elegant.</t>
+  </si>
+  <si>
+    <t>Don’t judge a book by its cover.</t>
+  </si>
+  <si>
+    <t>Unconscious Bias (Implicit Bias)</t>
+  </si>
+  <si>
+    <t>We unconsciously attribute prejudices or unsupported beliefs in favor of (or against) another person or group of people.</t>
+  </si>
+  <si>
+    <t>Clara likes to hire younger men because she thinks they are more technologically savvy.</t>
+  </si>
+  <si>
+    <t>Unconscious bias is like jealousy: nobody likes to admit it, and often we're unaware of it.</t>
+  </si>
+  <si>
+    <t>Defensive Attribution</t>
+  </si>
+  <si>
+    <t>When we witness a negative event, we tend to assign a controllable cause to it so we can feel less vulnerable.</t>
+  </si>
+  <si>
+    <t>Betty shakes her head as she drives past the accident, certain it was due to drunk driving.</t>
+  </si>
+  <si>
+    <t>Life is about not knowing... taking the moment and making the best of it, without knowing what's going to happen next.</t>
+  </si>
+  <si>
+    <t>Bias Blind Spot</t>
+  </si>
+  <si>
+    <t>We don't think we have bias; we see it in others more than in ourselves.</t>
+  </si>
+  <si>
+    <t>“I’m like the most color-blind, gender-blind, and status-blind person,” said Kay.</t>
+  </si>
+  <si>
+    <t>We are only as blind as we want to be.</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Moral Luck</t>
+  </si>
+  <si>
+    <t>We determine how moral someone or something is by the outcome of their actions, regardless of uncontrollable factors.</t>
+  </si>
+  <si>
+    <t>Driver A accidentally runs a red light as a child is crossing and hits the child. Driver B also runs a red light, but no one is crossing. Should both drivers be blamed equally?</t>
+  </si>
+  <si>
+    <t>The moral dilemma is to make peace with the unacceptable.</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Social Comparison Bias</t>
+  </si>
+  <si>
+    <t>We have feelings of dislike and competitiveness with someone we see as physically or mentally better than us.</t>
+  </si>
+  <si>
+    <t>Maya finds herself feeling irritated after browsing through her pretty friend's selfies on social media.</t>
+  </si>
+  <si>
+    <t>Comparison is the thief of joy.</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Not Invented Here</t>
+  </si>
+  <si>
+    <t>Our tendency to avoid using or buying products, research, or knowledge developed outside of our group.</t>
+  </si>
+  <si>
+    <t>The executives at Banana refused to save time by partnering with Olive because her products were not 'Made in Banana'.</t>
+  </si>
+  <si>
+    <t>The NIH Syndrome (Not Invented Here) is a disease.</t>
+  </si>
+  <si>
+    <t>红桃</t>
+  </si>
+  <si>
+    <t>End-of-History Illusion</t>
+  </si>
+  <si>
+    <t>We believe we will change less in the future than we have in the past.</t>
+  </si>
+  <si>
+    <t>20-year-old Kai believes he will not change much by the time he's 30 because he has matured so much already.</t>
+  </si>
+  <si>
+    <t>The person you are right now is as transient, as fleeting, and as temporary as all the people you've been.</t>
+  </si>
+  <si>
+    <t>IKEA Effect</t>
+  </si>
+  <si>
+    <t>We place a higher value on things we’ve partially created ourselves, regardless of the quality.</t>
+  </si>
+  <si>
+    <t>Isla loves her $50 stuffed animal because she picked out the fabric and colors herself.</t>
+  </si>
+  <si>
+    <t>Effort leads to love.</t>
+  </si>
+  <si>
+    <t>Hindsight Bias</t>
+  </si>
+  <si>
+    <t>We perceive past events as having been more predictable than they actually were.</t>
+  </si>
+  <si>
+    <t>After the underdog football team won, William exclaimed: 'I knew this was going to happen all along!'</t>
+  </si>
+  <si>
+    <t>The worse the consequence, the greater the hindsight bias.</t>
+  </si>
+  <si>
+    <t>Self-Serving Bias</t>
+  </si>
+  <si>
+    <t>We claim more responsibility for our successes than our failures.</t>
+  </si>
+  <si>
+    <t>Sam believes that she got into Yale because of her hard work, whereas her Harvard rejection was a result her interviewer's lousy mood.</t>
+  </si>
+  <si>
+    <t>Self-serving biases are cotton jammed in the ears of our conscience. Even if truth shouts, we can’t hear it.</t>
+  </si>
+  <si>
+    <t>Belief Bias</t>
+  </si>
+  <si>
+    <t>We accept an argument because it supports a conclusion that aligns with our beliefs and values, even when the argument is illogical.</t>
+  </si>
+  <si>
+    <t>Skater Sam voted for Jo because Jo will install skate ramps in schools. Jo will have each student pay $1000.</t>
+  </si>
+  <si>
+    <t>We want to see evidence that confirms our beliefs, and we want to forget anything dissonant.</t>
+  </si>
+  <si>
+    <t>Declinism (Rosy Retrospection)</t>
+  </si>
+  <si>
+    <t>We romanticize the past and view the future negatively.</t>
+  </si>
+  <si>
+    <t>Grandma lives in a state of disappointment; she believes today’s young people are lazier than previous generations.</t>
+  </si>
+  <si>
+    <t>I’m as prone to declinism as the next over-mortgaged middle-age guy.</t>
+  </si>
+  <si>
+    <t>Moral Credential Effect</t>
+  </si>
+  <si>
+    <t>We've been so honest and good that we subconsciously grant ourselves the license to make a poorer choice.</t>
+  </si>
+  <si>
+    <t>Ry has always been a loyal volunteer, so he decided it’s OK to treat himself to a new bag with the organization’s money.</t>
+  </si>
+  <si>
+    <t>I’ve been honest and hard-working all my life, and now life owes me.</t>
+  </si>
+  <si>
+    <t>Pessimism Bias</t>
+  </si>
+  <si>
+    <t>We overestimate the likelihood of negative outcomes.</t>
+  </si>
+  <si>
+    <t>Molly thinks the world is against her because nothing seems to be going her way, making her even more depressed.</t>
+  </si>
+  <si>
+    <t>You need the negative focus to survive, but a positive one to thrive.</t>
+  </si>
+  <si>
+    <t>Optimism Bias</t>
+  </si>
+  <si>
+    <t>We overestimate the probability of positive outcomes.</t>
+  </si>
+  <si>
+    <t>Ken has a feeling that he is less likely to get lung cancer than his fellow smokers.</t>
+  </si>
+  <si>
+    <t>Wishful thinking is one thing, and reality is another.</t>
+  </si>
+  <si>
+    <t>Curse of Knowledge</t>
+  </si>
+  <si>
+    <t>We assume others know what we know. We have a harder time relating to the less-informed perspective.</t>
+  </si>
+  <si>
+    <t>Sally wonders why her grandma doesn’t understand her texts. WTH, SMH, IDK?</t>
+  </si>
+  <si>
+    <t>When we are given knowledge, it is impossible to imagine what it’s like to lack that knowledge.</t>
+  </si>
+  <si>
+    <t>Status Quo Bias</t>
+  </si>
+  <si>
+    <t>We like things to stay relatively the same. We perceive any change as a loss.</t>
+  </si>
+  <si>
+    <t>Charlene refuses to change her phone plan to a new provider that offers the same features for a lower price.</t>
+  </si>
+  <si>
+    <t>The world is not static, and the status quo is not sacred.</t>
+  </si>
+  <si>
+    <t>Compassion Fade</t>
+  </si>
+  <si>
+    <t>We feel more compassionate toward a smaller number of identifiable victims than a large number of anonymous victims.</t>
+  </si>
+  <si>
+    <t>Within hours, $500,000 was raised for Joe, the brave firefighter who suffered third-degree burns.</t>
+  </si>
+  <si>
+    <t>Real generosity is doing something nice for someone who will never find out.</t>
+  </si>
+  <si>
+    <t>Negativity Bias</t>
+  </si>
+  <si>
+    <t>We anticipate, give weight to, and use negative information far more than positive information.</t>
+  </si>
+  <si>
+    <t>Jack is still bothered by the one minor criticism of his speech, despite receiving several compliments.</t>
+  </si>
+  <si>
+    <t>Worry and negativity are a misuse of your imagination.</t>
+  </si>
+  <si>
+    <t>方块</t>
+  </si>
+  <si>
+    <t>Anchoring Bias</t>
+  </si>
+  <si>
+    <t>We rely heavily on one piece of info (usually the first) when judging something or someone.</t>
+  </si>
+  <si>
+    <t>Jenna can’t stand Josh because Josh stole a cookie from her when they were little kids. He also had the nerve to sell it back to her for $20!</t>
+  </si>
+  <si>
+    <t>When I'm anchoring, I miss chasing stories in the field.</t>
+  </si>
+  <si>
+    <t>Ambiguity Effect</t>
+  </si>
+  <si>
+    <t>We favor the known over the unknown.</t>
+  </si>
+  <si>
+    <t>Andy decided to register for a course taught by a professor with mixed reviews over the same course taught by a new professor with no reviews.</t>
+  </si>
+  <si>
+    <t>What if rather than being disheartened by the ambiguity, the uncertainty of life, we accept it and relax into it?</t>
+  </si>
+  <si>
+    <t>Confirmation Bias</t>
+  </si>
+  <si>
+    <t>We focus on or interpret info that fits with our existing beliefs.</t>
+  </si>
+  <si>
+    <t>Dan believes left-handed people are smarter than right-handed people because the smartest person he knows is left-handed.</t>
+  </si>
+  <si>
+    <t>Once an idea gets into your head, it's probably going to stay there.</t>
+  </si>
+  <si>
+    <t>Dunning-Kruger Effect</t>
+  </si>
+  <si>
+    <t>We tend to overestimate our knowledge or ability, especially in areas with little or no experience.</t>
+  </si>
+  <si>
+    <t>Craig is more confident about doing the dangerous experiment than Amy, his instructor.</t>
+  </si>
+  <si>
+    <t>The whole problem with the world is that fools and fanatics are always so certain of themselves, and wiser people so full of doubts.</t>
+  </si>
+  <si>
+    <t>Gambler’s Fallacy</t>
+  </si>
+  <si>
+    <t>We believe future probabilities are affected by past events when in reality, they cannot be altered.</t>
+  </si>
+  <si>
+    <t>Greg is betting big on the Pups because they’ve lost 10 times in a row, so this losing streak is bound to end!</t>
+  </si>
+  <si>
+    <t>My colleagues, they study artificial intelligence; me, I study natural stupidity.</t>
+  </si>
+  <si>
+    <t>Mere Exposure Effect (Familiarity Principle)</t>
+  </si>
+  <si>
+    <t>We like things simply because we are familiar with them.</t>
+  </si>
+  <si>
+    <t>Aaliyah hated the new song, but after hearing it played repeatedly, she grew fond of its melody and beat.</t>
+  </si>
+  <si>
+    <t>Familiarity breeds liking.</t>
+  </si>
+  <si>
+    <t>Commitment Bias (Escalation of Commitment)</t>
+  </si>
+  <si>
+    <t>We remain committed to our past behaviors, even when presented with evidence that we shouldn’t be.</t>
+  </si>
+  <si>
+    <t>Quinn always thought she wanted to be a lawyer. Even though she is now a passionate artist, she’s applying to law school.</t>
+  </si>
+  <si>
+    <t>If you find yourself in a hole, stop digging.</t>
+  </si>
+  <si>
+    <t>Framing Effect</t>
+  </si>
+  <si>
+    <t>Our decisions are influenced by the way information is presented.</t>
+  </si>
+  <si>
+    <t>Would you rather hear that you have a 90% chance of survival or a 10% chance of death?</t>
+  </si>
+  <si>
+    <t>It doesn’t matter if the glass is half empty or half full. Be grateful that you have a glass, and there is something in it.</t>
+  </si>
+  <si>
+    <t>Normalcy Bias</t>
+  </si>
+  <si>
+    <t>We refuse to plan for or to react to a disaster that has never happened before.</t>
+  </si>
+  <si>
+    <t>Experts have initially underestimated the severity of the COVID-19 pandemic.</t>
+  </si>
+  <si>
+    <t>Our trouble is not ignorance, but inaction.</t>
+  </si>
+  <si>
+    <t>Availability Heuristic</t>
+  </si>
+  <si>
+    <t>We rely on examples that come to mind quickly when evaluating or making decisions.</t>
+  </si>
+  <si>
+    <t>Nick is now afraid to swim in the ocean because he watched a movie on shark attack last week.</t>
+  </si>
+  <si>
+    <t>If you can think of it, it must be important.</t>
+  </si>
+  <si>
+    <t>Loss Aversion</t>
+  </si>
+  <si>
+    <t>We’d rather avoid losses than achieve equivalent gains.</t>
+  </si>
+  <si>
+    <t>Sal refused to sell his failing business for $200 because he had already invested $300. In the end, he got nothing.</t>
+  </si>
+  <si>
+    <t>If we could be freed from our aversion to loss, our whole outlook on risk would change.</t>
+  </si>
+  <si>
+    <t>Illusion of Control</t>
+  </si>
+  <si>
+    <t>We overestimate our ability to control events.</t>
+  </si>
+  <si>
+    <t>Allen diligently wears his lucky jersey to every game to boost his team's odds of winning.</t>
+  </si>
+  <si>
+    <t>You will never be able to control anything, any situation, or anyone without consent. So in actuality there is no control, there is only consent!</t>
+  </si>
+  <si>
+    <t>Barnum Effect (Forer Effect)</t>
+  </si>
+  <si>
+    <t>We attribute our personalities to vague or general statements, even when they apply to a wide range of people.</t>
+  </si>
+  <si>
+    <t>Arya’s horoscope is so accurate! It says she is friendly at times and reserved at other times.</t>
+  </si>
+  <si>
+    <t>Who needs astrology. A wise man gets by on fortune cookies.</t>
+  </si>
+  <si>
+    <t>梅花</t>
+  </si>
+  <si>
+    <t>Spotlight Effect</t>
+  </si>
+  <si>
+    <t>We overestimate how much people are paying attention to how we look and act.</t>
+  </si>
+  <si>
+    <t>Amelia is worried that her peers will notice her uneven haircut and gossip behind her back.</t>
+  </si>
+  <si>
+    <t>We never get accustomed to being less important to other people than they are to us.</t>
+  </si>
+  <si>
     <t>Pygmalion Effect</t>
   </si>
   <si>
@@ -64,133 +550,124 @@
     <t>Leaders should always expect the very best of those around them. They know that people can change and grow.</t>
   </si>
   <si>
-    <t>Confirmation Bias</t>
-  </si>
-  <si>
-    <t>We focus on or interpret info that fits with our existing beliefs.</t>
-  </si>
-  <si>
-    <t>Dan believes left-handed people are smarter than right-handed people because the smartest person he knows is left-handed.</t>
-  </si>
-  <si>
-    <t>Once an idea gets into your head, it's probably going to stay there.</t>
-  </si>
-  <si>
-    <t>Self-Serving Bias</t>
-  </si>
-  <si>
-    <t>We claim more responsibility for our successes than our failures.</t>
-  </si>
-  <si>
-    <t>Sam believes that she got into Yale because of her hard work, whereas her Harvard rejection was a result her interviewer's lousy mood.</t>
-  </si>
-  <si>
-    <t>Self-serving biases are cotton jammed in the ears of our conscience. Even if truth shouts, we can’t hear it.</t>
-  </si>
-  <si>
-    <t>Survivorship Bias</t>
-  </si>
-  <si>
-    <t>We focus on the visible success of someone / something and forget or overlook those who failed.</t>
-  </si>
-  <si>
-    <t>Justin wants to drop out of college and start a business like Elon Musk and Bill Gates.</t>
-  </si>
-  <si>
-    <t>I survived because the fire inside me burned brighter than the fire around me.</t>
-  </si>
-  <si>
-    <t>Declinism (Rosy Retrospection)</t>
-  </si>
-  <si>
-    <t>We romanticize the past and view the future negatively.</t>
-  </si>
-  <si>
-    <t>Grandma lives in a state of disappointment; she believes today’s young people are lazier than previous generations.</t>
-  </si>
-  <si>
-    <t>I’m as prone to declinism as the next over-mortgaged middle-age guy.</t>
-  </si>
-  <si>
-    <t>Moral Credential Effect</t>
-  </si>
-  <si>
-    <t>We've been so honest and good that we subconsciously grant ourselves the license to make a poorer choice.</t>
-  </si>
-  <si>
-    <t>Ry has always been a loyal volunteer, so he decided it’s OK to treat himself to a new bag with the organization’s money.</t>
-  </si>
-  <si>
-    <t>I’ve been honest and hard-working all my life, and now life owes me.</t>
-  </si>
-  <si>
-    <t>Framing Effect</t>
-  </si>
-  <si>
-    <t>Our decisions are influenced by the way information is presented.</t>
-  </si>
-  <si>
-    <t>Would you rather hear that you have a 90% chance of survival or a 10% chance of death?</t>
-  </si>
-  <si>
-    <t>It doesn’t matter if the glass is half empty or half full. Be grateful that you have a glass, and there is something in it.</t>
-  </si>
-  <si>
-    <t>Optimism Bias</t>
-  </si>
-  <si>
-    <t>We overestimate the probability of positive outcomes.</t>
-  </si>
-  <si>
-    <t>Ken has a feeling that he is less likely to get lung cancer than his fellow smokers.</t>
-  </si>
-  <si>
-    <t>Wishful thinking is one thing, and reality is another.</t>
-  </si>
-  <si>
-    <t>Bias Blind Spot</t>
-  </si>
-  <si>
-    <t>We don't think we have bias; we see it in others more than in ourselves.</t>
-  </si>
-  <si>
-    <t>“I’m like the most color-blind, gender-blind, and status-blind person,” said Kay.</t>
-  </si>
-  <si>
-    <t>We are only as blind as we want to be.</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>Loss Aversion</t>
-  </si>
-  <si>
-    <t>We’d rather avoid losses than achieve equivalent gains.</t>
-  </si>
-  <si>
-    <t>Sal refused to sell his failing business for $200 because he had already invested $300. In the end, he got nothing.</t>
-  </si>
-  <si>
-    <t>If we could be freed from our aversion to loss, our whole outlook on risk would change.</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>Illusion of Control</t>
-  </si>
-  <si>
-    <t>We overestimate our ability to control events.</t>
-  </si>
-  <si>
-    <t>Allen diligently wears his lucky jersey to every game to boost his team's odds of winning.</t>
-  </si>
-  <si>
-    <t>You will never be able to control anything, any situation, or anyone without consent. So in actuality there is no control, there is only consent!</t>
-  </si>
-  <si>
-    <t>K</t>
+    <t>Bandwagon Effect</t>
+  </si>
+  <si>
+    <t>We believe or do something because many others believe or do the same.</t>
+  </si>
+  <si>
+    <t>'I need a pair of bare-butt pants! Everyone under the sun is wearing them!' Kelly shouted.</t>
+  </si>
+  <si>
+    <t>If ever it’s necessary to ride the bandwagon, it’s done with one leg swinging out and eyes scoping the fields.</t>
+  </si>
+  <si>
+    <t>In-Group Bias</t>
+  </si>
+  <si>
+    <t>We automatically favor those who we perceive to look or live like us.</t>
+  </si>
+  <si>
+    <t>Stacy lets Emma cut in line because Emma belongs to her golf academy.</t>
+  </si>
+  <si>
+    <t>Bias and impartiality is in the eye of the beholder.</t>
+  </si>
+  <si>
+    <t>Reactance</t>
+  </si>
+  <si>
+    <t>Our urge to do the opposite of what someone wants us to do, especially when we perceive a threat to our personal freedom.</t>
+  </si>
+  <si>
+    <t>The more mom wants me to practice the piano, the more I hate doing it.</t>
+  </si>
+  <si>
+    <t>Tell me not to do something and I will do it twice and take pictures.</t>
+  </si>
+  <si>
+    <t>Outgroup Homogeneity Bias</t>
+  </si>
+  <si>
+    <t>We see members of our group as more diverse than members of other groups.</t>
+  </si>
+  <si>
+    <t>'We may all be black &amp; famous, but we don't all look alike!' Said Samuel Jackson after the reporter confused him with Lawrence Fishburne from The Matrix.</t>
+  </si>
+  <si>
+    <t>Out of ignorance or expediency, we give all snowflakes the same name.</t>
+  </si>
+  <si>
+    <t>Shared Information Bias</t>
+  </si>
+  <si>
+    <t>Group members tend to spend more time and energy discussing information that more members are familiar with.</t>
+  </si>
+  <si>
+    <t>After each interviewer shared how much they liked Tom, there was no time left for Jo, who was alone in her concerns about him.</t>
+  </si>
+  <si>
+    <t>We find comfort among those who agree with us; growth among those who don’t.</t>
+  </si>
+  <si>
+    <t>Group Attribution Error</t>
+  </si>
+  <si>
+    <t>Our tendency to believe either the characteristics of an individual group member reflect the group as a whole or a group decision reflects the preferences of individual group members.</t>
+  </si>
+  <si>
+    <t>Ivy thinks boys are gross. She knows because her brother farts all the time.</t>
+  </si>
+  <si>
+    <t>Assumptions are the termites of relationships.</t>
+  </si>
+  <si>
+    <t>Availability Cascade</t>
+  </si>
+  <si>
+    <t>We increasingly believe in something due to repeated public exposure, and then we help to spread it further.</t>
+  </si>
+  <si>
+    <t>Urban legends such as razor blades in Halloween candies led to endless media coverage and public panic.</t>
+  </si>
+  <si>
+    <t>Rumor grows as it goes.</t>
+  </si>
+  <si>
+    <t>False Consensus Effect</t>
+  </si>
+  <si>
+    <t>We tend to overestimate how many people agree with our attitudes, beliefs, and behavior.</t>
+  </si>
+  <si>
+    <t>Andy is certain that everyone loved the show, too.</t>
+  </si>
+  <si>
+    <t>Don’t take refuge in the false security of consensus.</t>
+  </si>
+  <si>
+    <t>Cheerleader Effect</t>
+  </si>
+  <si>
+    <t>We see people as more attractive in a group than in isolation.</t>
+  </si>
+  <si>
+    <t>On her first date, Alex realizes that Blake looks different from his soccer team profile picture.</t>
+  </si>
+  <si>
+    <t>Popularity is not an indication of quality.</t>
+  </si>
+  <si>
+    <t>Groupthink</t>
+  </si>
+  <si>
+    <t>We avoid conflict by conforming to the group's decision and withholding differing opinions.</t>
+  </si>
+  <si>
+    <t>Tyler doesn't want to waste his money on a boring carnival ride, but he does anyway because his friends are doing it.</t>
+  </si>
+  <si>
+    <t>When we all think alike, no one thinks very much.</t>
   </si>
   <si>
     <t>Ben Franklin Effect</t>
@@ -203,483 +680,6 @@
   </si>
   <si>
     <t>To manipulate someone is to ask a favor without asking.</t>
-  </si>
-  <si>
-    <t>红桃</t>
-  </si>
-  <si>
-    <t>End-of-History Illusion</t>
-  </si>
-  <si>
-    <t>We believe we will change less in the future than we have in the past.</t>
-  </si>
-  <si>
-    <t>20-year-old Kai believes he will not change much by the time he's 30 because he has matured so much already.</t>
-  </si>
-  <si>
-    <t>The person you are right now is as transient, as fleeting, and as temporary as all the people you've been.</t>
-  </si>
-  <si>
-    <t>IKEA Effect</t>
-  </si>
-  <si>
-    <t>We place a higher value on things we’ve partially created ourselves, regardless of the quality.</t>
-  </si>
-  <si>
-    <t>Isla loves her $50 stuffed animal because she picked out the fabric and colors herself.</t>
-  </si>
-  <si>
-    <t>Effort leads to love.</t>
-  </si>
-  <si>
-    <t>Authority Bias</t>
-  </si>
-  <si>
-    <t>We trust and are more influenced by the opinions of authority figures.</t>
-  </si>
-  <si>
-    <t>Zoey is super excited to go on the FOMO diet because her favorite celebrity raved about it.</t>
-  </si>
-  <si>
-    <t>The disappearance of a sense of responsibility is the most far-reaching consequence of submission to authority.</t>
-  </si>
-  <si>
-    <t>In-Group Bias</t>
-  </si>
-  <si>
-    <t>We automatically favor those who we perceive to look or live like us.</t>
-  </si>
-  <si>
-    <t>Stacy lets Emma cut in line because Emma belongs to her golf academy.</t>
-  </si>
-  <si>
-    <t>Bias and impartiality is in the eye of the beholder.</t>
-  </si>
-  <si>
-    <t>Reactance</t>
-  </si>
-  <si>
-    <t>Our urge to do the opposite of what someone wants us to do, especially when we perceive a threat to our personal freedom.</t>
-  </si>
-  <si>
-    <t>The more mom wants me to practice the piano, the more I hate doing it.</t>
-  </si>
-  <si>
-    <t>Tell me not to do something and I will do it twice and take pictures.</t>
-  </si>
-  <si>
-    <t>Naïve Realism</t>
-  </si>
-  <si>
-    <t>We believe we see reality objectively and without bias but others are irrational, uninformed, or biased.</t>
-  </si>
-  <si>
-    <t>Frank, a food influencer, is annoyed that Ian doesn’t appreciate the chef’s vanilla-covered sushi creation.</t>
-  </si>
-  <si>
-    <t>The only thing more dangerous than ignorance is arrogance.</t>
-  </si>
-  <si>
-    <t>Shared Information Bias</t>
-  </si>
-  <si>
-    <t>Group members tend to spend more time and energy discussing information that more members are familiar with.</t>
-  </si>
-  <si>
-    <t>After each interviewer shared how much they liked Tom, there was no time left for Jo, who was alone in her concerns about him.</t>
-  </si>
-  <si>
-    <t>We find comfort among those who agree with us; growth among those who don’t.</t>
-  </si>
-  <si>
-    <t>Unconscious Bias (Implicit Bias)</t>
-  </si>
-  <si>
-    <t>We unconsciously attribute prejudices or unsupported beliefs in favor of (or against) another person or group of people.</t>
-  </si>
-  <si>
-    <t>Clara likes to hire younger men because she thinks they are more technologically savvy.</t>
-  </si>
-  <si>
-    <t>Unconscious bias is like jealousy: nobody likes to admit it, and often we're unaware of it.</t>
-  </si>
-  <si>
-    <t>Normalcy Bias</t>
-  </si>
-  <si>
-    <t>We refuse to plan for or to react to a disaster that has never happened before.</t>
-  </si>
-  <si>
-    <t>Experts have initially underestimated the severity of the COVID-19 pandemic.</t>
-  </si>
-  <si>
-    <t>Our trouble is not ignorance, but inaction.</t>
-  </si>
-  <si>
-    <t>False Consensus Effect</t>
-  </si>
-  <si>
-    <t>We tend to overestimate how many people agree with our attitudes, beliefs, and behavior.</t>
-  </si>
-  <si>
-    <t>Andy is certain that everyone loved the show, too.</t>
-  </si>
-  <si>
-    <t>Don’t take refuge in the false security of consensus.</t>
-  </si>
-  <si>
-    <t>Cheerleader Effect</t>
-  </si>
-  <si>
-    <t>We see people as more attractive in a group than in isolation.</t>
-  </si>
-  <si>
-    <t>On her first date, Alex realizes that Blake looks different from his soccer team profile picture.</t>
-  </si>
-  <si>
-    <t>Popularity is not an indication of quality.</t>
-  </si>
-  <si>
-    <t>Groupthink</t>
-  </si>
-  <si>
-    <t>We avoid conflict by conforming to the group's decision and withholding differing opinions.</t>
-  </si>
-  <si>
-    <t>Tyler doesn't want to waste his money on a boring carnival ride, but he does anyway because his friends are doing it.</t>
-  </si>
-  <si>
-    <t>When we all think alike, no one thinks very much.</t>
-  </si>
-  <si>
-    <t>Negativity Bias</t>
-  </si>
-  <si>
-    <t>We anticipate, give weight to, and use negative information far more than positive information.</t>
-  </si>
-  <si>
-    <t>Jack is still bothered by the one minor criticism of his speech, despite receiving several compliments.</t>
-  </si>
-  <si>
-    <t>Worry and negativity are a misuse of your imagination.</t>
-  </si>
-  <si>
-    <t>方块</t>
-  </si>
-  <si>
-    <t>Anchoring Bias</t>
-  </si>
-  <si>
-    <t>We rely heavily on one piece of info (usually the first) when judging something or someone.</t>
-  </si>
-  <si>
-    <t>Jenna can’t stand Josh because Josh stole a cookie from her when they were little kids. He also had the nerve to sell it back to her for $20!</t>
-  </si>
-  <si>
-    <t>When I'm anchoring, I miss chasing stories in the field.</t>
-  </si>
-  <si>
-    <t>Ambiguity Effect</t>
-  </si>
-  <si>
-    <t>We favor the known over the unknown.</t>
-  </si>
-  <si>
-    <t>Andy decided to register for a course taught by a professor with mixed reviews over the same course taught by a new professor with no reviews.</t>
-  </si>
-  <si>
-    <t>What if rather than being disheartened by the ambiguity, the uncertainty of life, we accept it and relax into it?</t>
-  </si>
-  <si>
-    <t>Hindsight Bias</t>
-  </si>
-  <si>
-    <t>We perceive past events as having been more predictable than they actually were.</t>
-  </si>
-  <si>
-    <t>After the underdog football team won, William exclaimed: 'I knew this was going to happen all along!'</t>
-  </si>
-  <si>
-    <t>The worse the consequence, the greater the hindsight bias.</t>
-  </si>
-  <si>
-    <t>Fundamental Attribution Error</t>
-  </si>
-  <si>
-    <t>We attribute others’ actions to their personality or character, but we attribute our own actions to our situation (outside of control).</t>
-  </si>
-  <si>
-    <t>I am late due to traffic, unlike Emily, who is late due to laziness.</t>
-  </si>
-  <si>
-    <t>Everybody makes excuses for themselves they wouldn’t be prepared to make for other people.</t>
-  </si>
-  <si>
-    <t>Belief Bias</t>
-  </si>
-  <si>
-    <t>We accept an argument because it supports a conclusion that aligns with our beliefs and values, even when the argument is illogical.</t>
-  </si>
-  <si>
-    <t>Skater Sam voted for Jo because Jo will install skate ramps in schools. Jo will have each student pay $1000.</t>
-  </si>
-  <si>
-    <t>We want to see evidence that confirms our beliefs, and we want to forget anything dissonant.</t>
-  </si>
-  <si>
-    <t>Outgroup Homogeneity Bias</t>
-  </si>
-  <si>
-    <t>We see members of our group as more diverse than members of other groups.</t>
-  </si>
-  <si>
-    <t>'We may all be black &amp; famous, but we don't all look alike!' Said Samuel Jackson after the reporter confused him with Lawrence Fishburne from The Matrix.</t>
-  </si>
-  <si>
-    <t>Out of ignorance or expediency, we give all snowflakes the same name.</t>
-  </si>
-  <si>
-    <t>Commitment Bias (Escalation of Commitment)</t>
-  </si>
-  <si>
-    <t>We remain committed to our past behaviors, even when presented with evidence that we shouldn’t be.</t>
-  </si>
-  <si>
-    <t>Quinn always thought she wanted to be a lawyer. Even though she is now a passionate artist, she’s applying to law school.</t>
-  </si>
-  <si>
-    <t>If you find yourself in a hole, stop digging.</t>
-  </si>
-  <si>
-    <t>Pessimism Bias</t>
-  </si>
-  <si>
-    <t>We overestimate the likelihood of negative outcomes.</t>
-  </si>
-  <si>
-    <t>Molly thinks the world is against her because nothing seems to be going her way, making her even more depressed.</t>
-  </si>
-  <si>
-    <t>You need the negative focus to survive, but a positive one to thrive.</t>
-  </si>
-  <si>
-    <t>Availability Cascade</t>
-  </si>
-  <si>
-    <t>We increasingly believe in something due to repeated public exposure, and then we help to spread it further.</t>
-  </si>
-  <si>
-    <t>Urban legends such as razor blades in Halloween candies led to endless media coverage and public panic.</t>
-  </si>
-  <si>
-    <t>Rumor grows as it goes.</t>
-  </si>
-  <si>
-    <t>Curse of Knowledge</t>
-  </si>
-  <si>
-    <t>We assume others know what we know. We have a harder time relating to the less-informed perspective.</t>
-  </si>
-  <si>
-    <t>Sally wonders why her grandma doesn’t understand her texts. WTH, SMH, IDK?</t>
-  </si>
-  <si>
-    <t>When we are given knowledge, it is impossible to imagine what it’s like to lack that knowledge.</t>
-  </si>
-  <si>
-    <t>Moral Luck</t>
-  </si>
-  <si>
-    <t>We determine how moral someone or something is by the outcome of their actions, regardless of uncontrollable factors.</t>
-  </si>
-  <si>
-    <t>Driver A accidentally runs a red light as a child is crossing and hits the child. Driver B also runs a red light, but no one is crossing. Should both drivers be blamed equally?</t>
-  </si>
-  <si>
-    <t>The moral dilemma is to make peace with the unacceptable.</t>
-  </si>
-  <si>
-    <t>Social Comparison Bias</t>
-  </si>
-  <si>
-    <t>We have feelings of dislike and competitiveness with someone we see as physically or mentally better than us.</t>
-  </si>
-  <si>
-    <t>Maya finds herself feeling irritated after browsing through her pretty friend's selfies on social media.</t>
-  </si>
-  <si>
-    <t>Comparison is the thief of joy.</t>
-  </si>
-  <si>
-    <t>Barnum Effect (Forer Effect)</t>
-  </si>
-  <si>
-    <t>We attribute our personalities to vague or general statements, even when they apply to a wide range of people.</t>
-  </si>
-  <si>
-    <t>Arya’s horoscope is so accurate! It says she is friendly at times and reserved at other times.</t>
-  </si>
-  <si>
-    <t>Who needs astrology. A wise man gets by on fortune cookies.</t>
-  </si>
-  <si>
-    <t>梅花</t>
-  </si>
-  <si>
-    <t>Spotlight Effect</t>
-  </si>
-  <si>
-    <t>We overestimate how much people are paying attention to how we look and act.</t>
-  </si>
-  <si>
-    <t>Amelia is worried that her peers will notice her uneven haircut and gossip behind her back.</t>
-  </si>
-  <si>
-    <t>We never get accustomed to being less important to other people than they are to us.</t>
-  </si>
-  <si>
-    <t>Stereotyping</t>
-  </si>
-  <si>
-    <t>We expect a member of a group to have certain characteristics before knowing them individually.</t>
-  </si>
-  <si>
-    <t>Karen thinks Xin is good at math because his name sounds Asian.</t>
-  </si>
-  <si>
-    <t>The problem with labels is that they lead to stereotypes and stereotypes lead to generalizations and generalizations lead to assumptions and assumptions lead back to stereotypes.</t>
-  </si>
-  <si>
-    <t>Bandwagon Effect</t>
-  </si>
-  <si>
-    <t>We believe or do something because many others believe or do the same.</t>
-  </si>
-  <si>
-    <t>'I need a pair of bare-butt pants! Everyone under the sun is wearing them!' Kelly shouted.</t>
-  </si>
-  <si>
-    <t>If ever it’s necessary to ride the bandwagon, it’s done with one leg swinging out and eyes scoping the fields.</t>
-  </si>
-  <si>
-    <t>Dunning-Kruger Effect</t>
-  </si>
-  <si>
-    <t>We tend to overestimate our knowledge or ability, especially in areas with little or no experience.</t>
-  </si>
-  <si>
-    <t>Craig is more confident about doing the dangerous experiment than Amy, his instructor.</t>
-  </si>
-  <si>
-    <t>The whole problem with the world is that fools and fanatics are always so certain of themselves, and wiser people so full of doubts.</t>
-  </si>
-  <si>
-    <t>Gambler’s Fallacy</t>
-  </si>
-  <si>
-    <t>We believe future probabilities are affected by past events when in reality, they cannot be altered.</t>
-  </si>
-  <si>
-    <t>Greg is betting big on the Pups because they’ve lost 10 times in a row, so this losing streak is bound to end!</t>
-  </si>
-  <si>
-    <t>My colleagues, they study artificial intelligence; me, I study natural stupidity.</t>
-  </si>
-  <si>
-    <t>Mere Exposure Effect (Familiarity Principle)</t>
-  </si>
-  <si>
-    <t>We like things simply because we are familiar with them.</t>
-  </si>
-  <si>
-    <t>Aaliyah hated the new song, but after hearing it played repeatedly, she grew fond of its melody and beat.</t>
-  </si>
-  <si>
-    <t>Familiarity breeds liking.</t>
-  </si>
-  <si>
-    <t>Halo Effect</t>
-  </si>
-  <si>
-    <t>Our overall impression of a person influences how we feel and think about their character.</t>
-  </si>
-  <si>
-    <t>Mia must be well-spoken and nice because she looks so beautiful and elegant.</t>
-  </si>
-  <si>
-    <t>Don’t judge a book by its cover.</t>
-  </si>
-  <si>
-    <t>Group Attribution Error</t>
-  </si>
-  <si>
-    <t>Our tendency to believe either the characteristics of an individual group member reflect the group as a whole or a group decision reflects the preferences of individual group members.</t>
-  </si>
-  <si>
-    <t>Ivy thinks boys are gross. She knows because her brother farts all the time.</t>
-  </si>
-  <si>
-    <t>Assumptions are the termites of relationships.</t>
-  </si>
-  <si>
-    <t>Defensive Attribution</t>
-  </si>
-  <si>
-    <t>When we witness a negative event, we tend to assign a controllable cause to it so we can feel less vulnerable.</t>
-  </si>
-  <si>
-    <t>Betty shakes her head as she drives past the accident, certain it was due to drunk driving.</t>
-  </si>
-  <si>
-    <t>Life is about not knowing... taking the moment and making the best of it, without knowing what's going to happen next.</t>
-  </si>
-  <si>
-    <t>Availability Heuristic</t>
-  </si>
-  <si>
-    <t>We rely on examples that come to mind quickly when evaluating or making decisions.</t>
-  </si>
-  <si>
-    <t>Nick is now afraid to swim in the ocean because he watched a movie on shark attack last week.</t>
-  </si>
-  <si>
-    <t>If you can think of it, it must be important.</t>
-  </si>
-  <si>
-    <t>Status Quo Bias</t>
-  </si>
-  <si>
-    <t>We like things to stay relatively the same. We perceive any change as a loss.</t>
-  </si>
-  <si>
-    <t>Charlene refuses to change her phone plan to a new provider that offers the same features for a lower price.</t>
-  </si>
-  <si>
-    <t>The world is not static, and the status quo is not sacred.</t>
-  </si>
-  <si>
-    <t>Compassion Fade</t>
-  </si>
-  <si>
-    <t>We feel more compassionate toward a smaller number of identifiable victims than a large number of anonymous victims.</t>
-  </si>
-  <si>
-    <t>Within hours, $500,000 was raised for Joe, the brave firefighter who suffered third-degree burns.</t>
-  </si>
-  <si>
-    <t>Real generosity is doing something nice for someone who will never find out.</t>
-  </si>
-  <si>
-    <t>Not Invented Here</t>
-  </si>
-  <si>
-    <t>Our tendency to avoid using or buying products, research, or knowledge developed outside of our group.</t>
-  </si>
-  <si>
-    <t>The executives at Banana refused to save time by partnering with Olive because her products were not 'Made in Banana'.</t>
-  </si>
-  <si>
-    <t>The NIH Syndrome (Not Invented Here) is a disease.</t>
   </si>
 </sst>
 </file>
@@ -1706,8 +1706,8 @@
   <sheetPr/>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1801,7 +1801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="34" spans="1:6">
+    <row r="5" ht="68" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="34" spans="1:6">
+    <row r="7" ht="51" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" ht="34" spans="1:6">
+    <row r="9" ht="51" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" ht="34" spans="1:6">
+    <row r="10" ht="51" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" ht="34" spans="1:6">
+    <row r="12" ht="68" spans="1:6">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" ht="34" spans="1:6">
+    <row r="13" ht="51" spans="1:6">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" ht="34" spans="1:6">
+    <row r="14" ht="51" spans="1:6">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" ht="51" spans="1:6">
+    <row r="19" ht="68" spans="1:6">
       <c r="A19" s="6" t="s">
         <v>63</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" ht="51" spans="1:6">
+    <row r="20" ht="34" spans="1:6">
       <c r="A20" s="6" t="s">
         <v>63</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" ht="51" spans="1:6">
+    <row r="22" ht="34" spans="1:6">
       <c r="A22" s="6" t="s">
         <v>63</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" ht="68" spans="1:6">
+    <row r="31" ht="51" spans="1:6">
       <c r="A31" s="6" t="s">
         <v>116</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" ht="68" spans="1:6">
+    <row r="32" ht="51" spans="1:6">
       <c r="A32" s="6" t="s">
         <v>116</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" ht="51" spans="1:6">
+    <row r="36" ht="34" spans="1:6">
       <c r="A36" s="6" t="s">
         <v>116</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" ht="68" spans="1:6">
+    <row r="38" ht="34" spans="1:6">
       <c r="A38" s="6" t="s">
         <v>116</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" ht="51" spans="1:6">
+    <row r="39" ht="34" spans="1:6">
       <c r="A39" s="6" t="s">
         <v>116</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="44" ht="51" spans="1:6">
+    <row r="44" ht="34" spans="1:6">
       <c r="A44" s="6" t="s">
         <v>169</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="53" ht="51" spans="1:6">
+    <row r="53" ht="34" spans="1:6">
       <c r="A53" s="6" t="s">
         <v>169</v>
       </c>
